--- a/utils/xl.xlsx
+++ b/utils/xl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="248">
   <si>
     <t>title</t>
   </si>
@@ -193,6 +193,9 @@
     <t>Besan Laddu</t>
   </si>
   <si>
+    <t>Rasgullas</t>
+  </si>
+  <si>
     <t>"Stir-fried beef in a light gingery sauce. Serve over steamed rice or hot egg noodles."</t>
   </si>
   <si>
@@ -341,6 +344,9 @@
   </si>
   <si>
     <t>"A delicious Indian sweet, commonly gifted during celebrations like Diwali. I got this recipe from my neighbor when I lived in India. She always brought me sweets that she made herself."</t>
+  </si>
+  <si>
+    <t>"If you are intimidated by the idea of making rasgullas at home, please do not be any longer. I was too, until one day I tried it and realized I was worried for no reason all these years. They are quite easy and super quick to make. Give these a try."</t>
   </si>
   <si>
     <t>Prep5 m
@@ -733,6 +739,16 @@
 Stir in the sugar, pistachios, and cashews until evenly mixed. Form the mixture into small balls the size of large cherries. Use some pressure when forming the balls so they don't come apart.</t>
   </si>
   <si>
+    <t>"Prep15 m
+Cook35 m
+Ready In1 h 50 m
+Bring the milk to a boil in a heavy-bottomed pan till it starts foaming; immediately add the lime juice and stir. It will curdle right away. You should see the milk solids (chenna) separate from the whey. Pour into a colander lined with cheesecloth; rinse the chenna with cold water to get rid of the lime juice. Allow the water to drain completely.
+Gather the muslin cloth edges like a parcel and express as much water as possible; what you now have is soft paneer. Turn the paneer onto a rolling mat or other smooth surface. Knead the paneer well to make a smooth paste. Roll into a ball and divide into 20 equal portions.
+Bring the water to a boil in a pressure cooker; stir the sugar into the boiling water until dissolved.
+Roll each portion of paneer into a smooth ball between your palms, making sure there are no cracks; gently drop the balls into the hot syrup. Secure the lid onto the pressure cooker and bring to pressure. Reduce heat to medium-low and pressure cook for 6 minutes.
+Release the pressure from the cooker while running under water; remove the lid. The rasgullas should be floating on the syrup and have expanded 2 or 3 times in size. Pour the rasgullas and syrup into a bowl. Gently stir the cardamom into the mixture. Refrigerate to chill completely before serving cold."</t>
+  </si>
+  <si>
     <t>Chinese</t>
   </si>
   <si>
@@ -916,6 +932,9 @@
     <t>{"https://images.media-allrecipes.com/userphotos/560x315/4450789.jpg"}</t>
   </si>
   <si>
+    <t>{"https://images.media-allrecipes.com/userphotos/250x250/564413.jpg","https://encrypted-tbn0.gstatic.com/images?q=tbn%3AANd9GcReVDzS5a7OGIQrGskHSvQTVfAJ4ce0iGX8sXUXt2JFLAlSjft7"}</t>
+  </si>
+  <si>
     <t>0:15:00</t>
   </si>
   <si>
@@ -980,6 +999,9 @@
   </si>
   <si>
     <t>2:55:00</t>
+  </si>
+  <si>
+    <t>1:50:00</t>
   </si>
   <si>
     <t>Desserts</t>
@@ -1340,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1380,25 +1402,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1406,25 +1428,25 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1432,25 +1454,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1458,25 +1480,25 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1484,25 +1506,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1510,25 +1532,25 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1536,25 +1558,25 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H8" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1562,25 +1584,25 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1588,25 +1610,25 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H10" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1614,25 +1636,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H11" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1640,25 +1662,25 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H12" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1666,25 +1688,25 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1692,25 +1714,25 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H14" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1718,25 +1740,25 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H15" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1744,25 +1766,25 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H16" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1770,25 +1792,25 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1796,25 +1818,25 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H18" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1822,25 +1844,25 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H19" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1848,25 +1870,25 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H20" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1874,25 +1896,25 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H21" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1900,25 +1922,25 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H22" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1926,25 +1948,25 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G23" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H23" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1952,25 +1974,25 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H24" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1978,25 +2000,25 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G25" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H25" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2004,25 +2026,25 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F26" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G26" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H26" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2030,25 +2052,25 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H27" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2056,25 +2078,25 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G28" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H28" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2082,25 +2104,25 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F29" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G29" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H29" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2108,25 +2130,25 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G30" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H30" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2134,25 +2156,25 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G31" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H31" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2160,25 +2182,25 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H32" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2186,25 +2208,25 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F33" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G33" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H33" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2212,25 +2234,25 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G34" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H34" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2238,25 +2260,25 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G35" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H35" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2264,25 +2286,25 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F36" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G36" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H36" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2290,25 +2312,25 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F37" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G37" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H37" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2316,25 +2338,25 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F38" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G38" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H38" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2342,25 +2364,25 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F39" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G39" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H39" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2368,25 +2390,25 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F40" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G40" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H40" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2394,25 +2416,25 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G41" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H41" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2420,25 +2442,25 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E42" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F42" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G42" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H42" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2446,25 +2468,25 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F43" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G43" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H43" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2472,25 +2494,25 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E44" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F44" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G44" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H44" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2498,25 +2520,25 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F45" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G45" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H45" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2524,25 +2546,25 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F46" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G46" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H46" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2550,25 +2572,25 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E47" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F47" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G47" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H47" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2576,25 +2598,25 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F48" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G48" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H48" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I48" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2602,25 +2624,25 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F49" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G49" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H49" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I49" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2628,25 +2650,25 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F50" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G50" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H50" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I50" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2654,25 +2676,51 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F51" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G51" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H51" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="I51" t="s">
-        <v>242</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
+        <v>163</v>
+      </c>
+      <c r="F52" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" t="s">
+        <v>223</v>
+      </c>
+      <c r="H52" t="s">
+        <v>246</v>
+      </c>
+      <c r="I52" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
